--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.648873</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H2">
-        <v>1.946619</v>
+        <v>0.720272</v>
       </c>
       <c r="I2">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="J2">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +561,22 @@
         <v>0.03657</v>
       </c>
       <c r="O2">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="P2">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="Q2">
-        <v>0.00790976187</v>
+        <v>0.002926705226666667</v>
       </c>
       <c r="R2">
-        <v>0.07118785683000001</v>
+        <v>0.02634034704</v>
       </c>
       <c r="S2">
-        <v>5.417990007827128E-07</v>
+        <v>4.699419412763228E-07</v>
       </c>
       <c r="T2">
-        <v>5.417990007827127E-07</v>
+        <v>4.699419412763227E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.648873</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H3">
-        <v>1.946619</v>
+        <v>0.720272</v>
       </c>
       <c r="I3">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="J3">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.85142500000001</v>
+        <v>32.87103466666667</v>
       </c>
       <c r="N3">
-        <v>143.554275</v>
+        <v>98.61310400000001</v>
       </c>
       <c r="O3">
-        <v>0.4147605967959998</v>
+        <v>0.7767049471988007</v>
       </c>
       <c r="P3">
-        <v>0.4147605967959997</v>
+        <v>0.7767049471988008</v>
       </c>
       <c r="Q3">
-        <v>31.04949769402501</v>
+        <v>7.892028627143111</v>
       </c>
       <c r="R3">
-        <v>279.445479246225</v>
+        <v>71.028257644288</v>
       </c>
       <c r="S3">
-        <v>0.002126813310174645</v>
+        <v>0.001267225417802677</v>
       </c>
       <c r="T3">
-        <v>0.002126813310174645</v>
+        <v>0.001267225417802677</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.648873</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H4">
-        <v>1.946619</v>
+        <v>0.720272</v>
       </c>
       <c r="I4">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="J4">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.50757833333334</v>
+        <v>9.43791</v>
       </c>
       <c r="N4">
-        <v>202.522735</v>
+        <v>28.31373</v>
       </c>
       <c r="O4">
-        <v>0.5851337442466141</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="P4">
-        <v>0.585133744246614</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="Q4">
-        <v>43.80384487588501</v>
+        <v>2.26595410384</v>
       </c>
       <c r="R4">
-        <v>394.234603882965</v>
+        <v>20.39358693456</v>
       </c>
       <c r="S4">
-        <v>0.003000454346698992</v>
+        <v>0.0003638449341256127</v>
       </c>
       <c r="T4">
-        <v>0.003000454346698992</v>
+        <v>0.0003638449341256127</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,14 +708,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -726,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.419388</v>
+        <v>91.82408133333333</v>
       </c>
       <c r="H5">
-        <v>166.258164</v>
+        <v>275.472244</v>
       </c>
       <c r="I5">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="J5">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,22 +747,22 @@
         <v>0.03657</v>
       </c>
       <c r="O5">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="P5">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="Q5">
-        <v>0.6755623397199999</v>
+        <v>1.119335551453333</v>
       </c>
       <c r="R5">
-        <v>6.080061057479999</v>
+        <v>10.07401996308</v>
       </c>
       <c r="S5">
-        <v>4.627433880341678E-05</v>
+        <v>0.0001797320472170303</v>
       </c>
       <c r="T5">
-        <v>4.627433880341678E-05</v>
+        <v>0.0001797320472170303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.419388</v>
+        <v>91.82408133333333</v>
       </c>
       <c r="H6">
-        <v>166.258164</v>
+        <v>275.472244</v>
       </c>
       <c r="I6">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="J6">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.85142500000001</v>
+        <v>32.87103466666667</v>
       </c>
       <c r="N6">
-        <v>143.554275</v>
+        <v>98.61310400000001</v>
       </c>
       <c r="O6">
-        <v>0.4147605967959998</v>
+        <v>0.7767049471988007</v>
       </c>
       <c r="P6">
-        <v>0.4147605967959997</v>
+        <v>0.7767049471988008</v>
       </c>
       <c r="Q6">
-        <v>2651.8966884279</v>
+        <v>3018.352560742819</v>
       </c>
       <c r="R6">
-        <v>23867.0701958511</v>
+        <v>27165.17304668538</v>
       </c>
       <c r="S6">
-        <v>0.1816483226149539</v>
+        <v>0.484657781360293</v>
       </c>
       <c r="T6">
-        <v>0.1816483226149539</v>
+        <v>0.4846577813602931</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.419388</v>
+        <v>91.82408133333333</v>
       </c>
       <c r="H7">
-        <v>166.258164</v>
+        <v>275.472244</v>
       </c>
       <c r="I7">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="J7">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.50757833333334</v>
+        <v>9.43791</v>
       </c>
       <c r="N7">
-        <v>202.522735</v>
+        <v>28.31373</v>
       </c>
       <c r="O7">
-        <v>0.5851337442466141</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="P7">
-        <v>0.585133744246614</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="Q7">
-        <v>3741.228676595394</v>
+        <v>866.62741545668</v>
       </c>
       <c r="R7">
-        <v>33671.05808935854</v>
+        <v>7799.64673911012</v>
       </c>
       <c r="S7">
-        <v>0.2562648524688159</v>
+        <v>0.1391546255742479</v>
       </c>
       <c r="T7">
-        <v>0.2562648524688158</v>
+        <v>0.1391546255742479</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +894,31 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.03596933333333333</v>
+        <v>55.09165833333333</v>
       </c>
       <c r="H8">
-        <v>0.107908</v>
+        <v>165.274975</v>
       </c>
       <c r="I8">
-        <v>0.0002842526774702687</v>
+        <v>0.3743763207243725</v>
       </c>
       <c r="J8">
-        <v>0.0002842526774702686</v>
+        <v>0.3743763207243724</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +933,22 @@
         <v>0.03657</v>
       </c>
       <c r="O8">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="P8">
-        <v>0.0001056589573861852</v>
+        <v>0.0002880357555630755</v>
       </c>
       <c r="Q8">
-        <v>0.0004384661733333333</v>
+        <v>0.6715673150833333</v>
       </c>
       <c r="R8">
-        <v>0.003946195559999999</v>
+        <v>6.04410583575</v>
       </c>
       <c r="S8">
-        <v>3.003384153574016E-08</v>
+        <v>0.0001078337664047689</v>
       </c>
       <c r="T8">
-        <v>3.003384153574015E-08</v>
+        <v>0.0001078337664047689</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +956,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.03596933333333333</v>
+        <v>55.09165833333333</v>
       </c>
       <c r="H9">
-        <v>0.107908</v>
+        <v>165.274975</v>
       </c>
       <c r="I9">
-        <v>0.0002842526774702687</v>
+        <v>0.3743763207243725</v>
       </c>
       <c r="J9">
-        <v>0.0002842526774702686</v>
+        <v>0.3743763207243724</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>47.85142500000001</v>
+        <v>32.87103466666667</v>
       </c>
       <c r="N9">
-        <v>143.554275</v>
+        <v>98.61310400000001</v>
       </c>
       <c r="O9">
-        <v>0.4147605967959998</v>
+        <v>0.7767049471988007</v>
       </c>
       <c r="P9">
-        <v>0.4147605967959997</v>
+        <v>0.7767049471988008</v>
       </c>
       <c r="Q9">
-        <v>1.7211838563</v>
+        <v>1810.919810919156</v>
       </c>
       <c r="R9">
-        <v>15.4906547067</v>
+        <v>16298.2782982724</v>
       </c>
       <c r="S9">
-        <v>0.0001178968101484295</v>
+        <v>0.290779940420705</v>
       </c>
       <c r="T9">
-        <v>0.0001178968101484294</v>
+        <v>0.290779940420705</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.03596933333333333</v>
+        <v>55.09165833333333</v>
       </c>
       <c r="H10">
-        <v>0.107908</v>
+        <v>165.274975</v>
       </c>
       <c r="I10">
-        <v>0.0002842526774702687</v>
+        <v>0.3743763207243725</v>
       </c>
       <c r="J10">
-        <v>0.0002842526774702686</v>
+        <v>0.3743763207243724</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,214 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>67.50757833333334</v>
+        <v>9.43791</v>
       </c>
       <c r="N10">
-        <v>202.522735</v>
+        <v>28.31373</v>
       </c>
       <c r="O10">
-        <v>0.5851337442466141</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="P10">
-        <v>0.585133744246614</v>
+        <v>0.2230070170456362</v>
       </c>
       <c r="Q10">
-        <v>2.428202587597778</v>
+        <v>519.9501131007501</v>
       </c>
       <c r="R10">
-        <v>21.85382328838</v>
+        <v>4679.551017906751</v>
       </c>
       <c r="S10">
-        <v>0.0001663258334803035</v>
+        <v>0.08348854653726272</v>
       </c>
       <c r="T10">
-        <v>0.0001663258334803034</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>70.435768</v>
-      </c>
-      <c r="H11">
-        <v>211.307304</v>
-      </c>
-      <c r="I11">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="J11">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.01219</v>
-      </c>
-      <c r="N11">
-        <v>0.03657</v>
-      </c>
-      <c r="O11">
-        <v>0.0001056589573861852</v>
-      </c>
-      <c r="P11">
-        <v>0.0001056589573861852</v>
-      </c>
-      <c r="Q11">
-        <v>0.8586120119199999</v>
-      </c>
-      <c r="R11">
-        <v>7.727508107279999</v>
-      </c>
-      <c r="S11">
-        <v>5.881278574044994E-05</v>
-      </c>
-      <c r="T11">
-        <v>5.881278574044993E-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>70.435768</v>
-      </c>
-      <c r="H12">
-        <v>211.307304</v>
-      </c>
-      <c r="I12">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="J12">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>47.85142500000001</v>
-      </c>
-      <c r="N12">
-        <v>143.554275</v>
-      </c>
-      <c r="O12">
-        <v>0.4147605967959998</v>
-      </c>
-      <c r="P12">
-        <v>0.4147605967959997</v>
-      </c>
-      <c r="Q12">
-        <v>3370.4518697694</v>
-      </c>
-      <c r="R12">
-        <v>30334.0668279246</v>
-      </c>
-      <c r="S12">
-        <v>0.2308675640607228</v>
-      </c>
-      <c r="T12">
-        <v>0.2308675640607227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>70.435768</v>
-      </c>
-      <c r="H13">
-        <v>211.307304</v>
-      </c>
-      <c r="I13">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="J13">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>67.50757833333334</v>
-      </c>
-      <c r="N13">
-        <v>202.522735</v>
-      </c>
-      <c r="O13">
-        <v>0.5851337442466141</v>
-      </c>
-      <c r="P13">
-        <v>0.585133744246614</v>
-      </c>
-      <c r="Q13">
-        <v>4754.948125728493</v>
-      </c>
-      <c r="R13">
-        <v>42794.53313155644</v>
-      </c>
-      <c r="S13">
-        <v>0.3257021115976189</v>
-      </c>
-      <c r="T13">
-        <v>0.3257021115976189</v>
+        <v>0.0834885465372627</v>
       </c>
     </row>
   </sheetData>
